--- a/GmailLogin/resources/TestData.xlsx
+++ b/GmailLogin/resources/TestData.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Invalid Credential</t>
   </si>
@@ -30,10 +30,7 @@
     <t>t11</t>
   </si>
   <si>
-    <t>niloy250</t>
-  </si>
-  <si>
-    <t>heattransfer</t>
+    <t>test123</t>
   </si>
 </sst>
 </file>
@@ -360,7 +357,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,8 +390,8 @@
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
+      <c r="C2" s="1">
+        <v>12345678</v>
       </c>
       <c r="E2" s="2"/>
       <c r="G2"/>
